--- a/biology/Botanique/Esenbeckia_berlandieri/Esenbeckia_berlandieri.xlsx
+++ b/biology/Botanique/Esenbeckia_berlandieri/Esenbeckia_berlandieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Esenbeckia berlandieri est une espèce de plantes de la famille des Rutaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 avril 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 avril 2019) :
 sous-espèce Esenbeckia berlandieri subsp. acapulcensis
 sous-espèce Esenbeckia berlandieri subsp. berlandieri
 sous-espèce Esenbeckia berlandieri subsp. litoralis
-Selon The Plant List            (10 avril 2019)[1] :
+Selon The Plant List            (10 avril 2019) :
 sous-espèce Esenbeckia berlandieri subsp. litoralis (Donn.Sm.) Kaastra
-Selon Tropicos                                           (10 avril 2019)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Esenbeckia berlandieri subsp. acapulcensis (Rose) Kaastra
 sous-espèce Esenbeckia berlandieri subsp. berlandieri
 sous-espèce Esenbeckia berlandieri subsp. litoralis (Donn. Sm.) Kaastra</t>
@@ -550,7 +564,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adansonia 10: 151. 1871.</t>
         </is>
